--- a/CashFlow/DOCU_cashflow.xlsx
+++ b/CashFlow/DOCU_cashflow.xlsx
@@ -397,19 +397,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>12128000.0</v>
+        <v>124000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5198000.0</v>
+        <v>115000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-11113000.0</v>
+        <v>64069000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>12146000.0</v>
+        <v>63157000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-459000.0</v>
+        <v>25998000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>24705000.0</v>
